--- a/AddImagesToReport/Main.rvl.xlsx
+++ b/AddImagesToReport/Main.rvl.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
   <si>
     <t>Flow</t>
   </si>
@@ -97,6 +97,30 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>filex</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>find browser</t>
+  </si>
+  <si>
+    <t>Open a browser</t>
+  </si>
+  <si>
+    <t>Navigator</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>www.inflectra.com</t>
   </si>
 </sst>
 </file>
@@ -117,7 +141,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="201">
+  <borders count="204">
     <border>
       <left/>
       <right/>
@@ -325,11 +349,14 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="201">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -531,6 +558,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="198" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="199" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="200" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="201" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="202" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="203" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,7 +570,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="true"/>
@@ -666,116 +696,153 @@
       <c r="H7" s="64"/>
     </row>
     <row r="8">
-      <c r="A8" s="65"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="71"/>
+      <c r="A8" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="71" t="s">
+        <v>7</v>
+      </c>
       <c r="H8" s="72"/>
     </row>
     <row r="9">
-      <c r="A9" s="73"/>
-      <c r="B9" s="74"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="80"/>
+      <c r="A9" s="203" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="81"/>
-      <c r="B10" s="82"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="88"/>
+      <c r="A10" s="73"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="80"/>
     </row>
     <row r="11">
-      <c r="A11" s="89"/>
-      <c r="B11" s="90"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="96" t="s">
+      <c r="A11" s="81"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="88"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="89"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="96" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="105"/>
-      <c r="B12" s="106"/>
-      <c r="C12" s="107"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="112"/>
-    </row>
     <row r="13">
-      <c r="A13" s="113"/>
-      <c r="B13" s="114"/>
-      <c r="C13" s="115"/>
-      <c r="D13" s="116"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="118"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="120"/>
+      <c r="A13" s="105"/>
+      <c r="B13" s="106"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="112"/>
     </row>
     <row r="14">
-      <c r="A14" s="121"/>
-      <c r="B14" s="122"/>
-      <c r="C14" s="123"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="126"/>
-      <c r="G14" s="127"/>
-      <c r="H14" s="128"/>
+      <c r="A14" s="113"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="116"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="118"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="120"/>
     </row>
     <row r="15">
-      <c r="A15" s="129"/>
-      <c r="B15" s="130"/>
-      <c r="C15" s="131"/>
-      <c r="D15" s="132"/>
-      <c r="E15" s="133"/>
-      <c r="F15" s="134"/>
-      <c r="G15" s="135"/>
-      <c r="H15" s="136"/>
+      <c r="A15" s="121"/>
+      <c r="B15" s="122"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="125"/>
+      <c r="F15" s="126"/>
+      <c r="G15" s="127"/>
+      <c r="H15" s="128"/>
     </row>
     <row r="16">
-      <c r="A16" s="137"/>
-      <c r="B16" s="138"/>
-      <c r="C16" s="139"/>
-      <c r="D16" s="140"/>
-      <c r="E16" s="141"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="143"/>
-      <c r="H16" s="144"/>
+      <c r="A16" s="129"/>
+      <c r="B16" s="130"/>
+      <c r="C16" s="131"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="134"/>
+      <c r="G16" s="135"/>
+      <c r="H16" s="136"/>
     </row>
     <row r="17">
-      <c r="A17" s="145"/>
-      <c r="B17" s="146"/>
-      <c r="C17" s="147"/>
-      <c r="D17" s="148"/>
-      <c r="E17" s="149"/>
-      <c r="F17" s="150"/>
-      <c r="G17" s="151"/>
-      <c r="H17" s="152"/>
+      <c r="A17" s="137"/>
+      <c r="B17" s="138"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="140"/>
+      <c r="E17" s="141"/>
+      <c r="F17" s="142"/>
+      <c r="G17" s="143"/>
+      <c r="H17" s="144"/>
     </row>
     <row r="18">
-      <c r="A18" s="153"/>
-      <c r="B18" s="154"/>
-      <c r="C18" s="155"/>
-      <c r="D18" s="156"/>
-      <c r="E18" s="157"/>
-      <c r="F18" s="158"/>
-      <c r="G18" s="159"/>
-      <c r="H18" s="160"/>
+      <c r="A18" s="145"/>
+      <c r="B18" s="146"/>
+      <c r="C18" s="147"/>
+      <c r="D18" s="148"/>
+      <c r="E18" s="149"/>
+      <c r="F18" s="150"/>
+      <c r="G18" s="151"/>
+      <c r="H18" s="152"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="153"/>
+      <c r="B19" s="154"/>
+      <c r="C19" s="155"/>
+      <c r="D19" s="156"/>
+      <c r="E19" s="157"/>
+      <c r="F19" s="158"/>
+      <c r="G19" s="159"/>
+      <c r="H19" s="160"/>
     </row>
   </sheetData>
 </worksheet>
